--- a/第07组/07-设计文档(1).xlsx
+++ b/第07组/07-设计文档(1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang big big\Documents\WeChat Files\a1733715371\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AEB075-1A10-421B-8C28-3AAAC7F81753}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="123">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -331,6 +337,9 @@
     <t>操作后台数据加载的代码</t>
   </si>
   <si>
+    <t>总结：UI在大致的修改下，有进步</t>
+  </si>
+  <si>
     <t>日期：2018.11.12 第十一周周一</t>
   </si>
   <si>
@@ -344,19 +353,96 @@
   </si>
   <si>
     <t>完善操作后台数据加载的代码</t>
+  </si>
+  <si>
+    <t>总结：不再纠结UI的问题，在功能实施上有很大的前进</t>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
+  </si>
+  <si>
+    <t>完成群管理界面的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写新建群，用户详情的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：分工比较明确，这样速度也会有所提高，不过今天没来的人比较多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写地图模块的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写我的模块的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成群管理界面的功能、前后台集成推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善后台管理系统管理模块功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：今天必须加快进度的去完成聊天模块的功能，然后开始编写推送模块和地图模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,345 +459,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -734,255 +513,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,62 +547,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1323,19 +846,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:D170"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="79.75" style="1" customWidth="1"/>
@@ -1344,15 +867,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +901,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +913,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +921,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1418,30 +941,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +979,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +992,7 @@
       <c r="D13" s="3"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1005,7 @@
       <c r="D14" s="3"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1018,7 @@
       <c r="D15" s="3"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1031,7 @@
       <c r="D16" s="3"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1521,39 +1044,39 @@
       <c r="D17" s="3"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1102,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1114,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1126,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1138,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1627,29 +1150,29 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1198,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1210,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1222,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1234,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>12</v>
       </c>
@@ -1723,29 +1246,29 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1759,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1294,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1306,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1318,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
@@ -1807,7 +1330,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
@@ -1819,29 +1342,29 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
@@ -1865,7 +1388,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1398,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +1408,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1418,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>36</v>
       </c>
@@ -1905,7 +1428,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
@@ -1915,29 +1438,29 @@
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1486,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +1498,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +1510,7 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +1522,7 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>36</v>
       </c>
@@ -2011,7 +1534,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>12</v>
       </c>
@@ -2023,29 +1546,29 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -2059,7 +1582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +1594,7 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +1606,7 @@
       </c>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="6" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +1618,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="6" t="s">
         <v>10</v>
       </c>
@@ -2107,7 +1630,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
         <v>36</v>
       </c>
@@ -2119,7 +1642,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>12</v>
       </c>
@@ -2131,29 +1654,29 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="6" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +1702,7 @@
       </c>
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +1714,7 @@
       </c>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="6" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +1726,7 @@
       </c>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +1738,7 @@
       </c>
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>36</v>
       </c>
@@ -2227,7 +1750,7 @@
       </c>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
         <v>12</v>
       </c>
@@ -2237,29 +1760,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="5" t="s">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +1808,7 @@
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +1820,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +1832,7 @@
       </c>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +1844,7 @@
       </c>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +1856,7 @@
       </c>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
@@ -2345,29 +1868,29 @@
       </c>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +1916,7 @@
       </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +1928,7 @@
       </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +1940,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>10</v>
       </c>
@@ -2429,7 +1952,7 @@
       </c>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +1964,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>12</v>
       </c>
@@ -2453,29 +1976,29 @@
       </c>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="5" t="s">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>1</v>
       </c>
@@ -2489,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2024,7 @@
       </c>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="6" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2036,7 @@
       </c>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
         <v>9</v>
       </c>
@@ -2525,7 +2048,7 @@
       </c>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2060,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2072,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
         <v>12</v>
       </c>
@@ -2561,29 +2084,29 @@
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="5" t="s">
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>1</v>
       </c>
@@ -2597,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
         <v>5</v>
       </c>
@@ -2609,7 +2132,7 @@
       </c>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
         <v>7</v>
       </c>
@@ -2621,7 +2144,7 @@
       </c>
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
         <v>9</v>
       </c>
@@ -2633,7 +2156,7 @@
       </c>
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
         <v>10</v>
       </c>
@@ -2645,7 +2168,7 @@
       </c>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
         <v>36</v>
       </c>
@@ -2657,7 +2180,7 @@
       </c>
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>12</v>
       </c>
@@ -2669,29 +2192,29 @@
       </c>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="5" t="s">
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
         <v>1</v>
       </c>
@@ -2705,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
         <v>5</v>
       </c>
@@ -2717,7 +2240,7 @@
       </c>
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2252,7 @@
       </c>
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2264,7 @@
       </c>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2276,7 @@
       </c>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>36</v>
       </c>
@@ -2765,7 +2288,7 @@
       </c>
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
         <v>12</v>
       </c>
@@ -2777,29 +2300,29 @@
       </c>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="5" t="s">
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
         <v>1</v>
       </c>
@@ -2813,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2348,7 @@
       </c>
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
         <v>7</v>
       </c>
@@ -2837,7 +2360,7 @@
       </c>
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
         <v>9</v>
       </c>
@@ -2849,7 +2372,7 @@
       </c>
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
         <v>10</v>
       </c>
@@ -2861,7 +2384,7 @@
       </c>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2396,7 @@
       </c>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
         <v>12</v>
       </c>
@@ -2885,29 +2408,29 @@
       </c>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="5" t="s">
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
         <v>1</v>
       </c>
@@ -2921,88 +2444,100 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C163" s="8"/>
+      <c r="C163" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C164" s="8"/>
+      <c r="C164" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C165" s="8"/>
+      <c r="C165" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D165" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C166" s="8"/>
+      <c r="C166" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C167" s="8"/>
+      <c r="C167" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C168" s="8"/>
+      <c r="C168" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="5" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>1</v>
       </c>
@@ -3016,118 +2551,327 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C174" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C175" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="8"/>
+      <c r="C176" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D176" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C177" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C178" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C179" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C188" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="8"/>
+      <c r="D198" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" s="8"/>
+      <c r="D200" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A158:D159"/>
-    <mergeCell ref="A169:D170"/>
+  <mergeCells count="38">
+    <mergeCell ref="A191:D192"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A202:D203"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A70:D71"/>
     <mergeCell ref="A103:D104"/>
     <mergeCell ref="A81:D82"/>
     <mergeCell ref="A92:D93"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A158:D159"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A180:D181"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A150:D150"/>
     <mergeCell ref="A136:D137"/>
     <mergeCell ref="A125:D126"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="A147:D148"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A28:D29"/>
     <mergeCell ref="A38:D39"/>
-    <mergeCell ref="A180:D181"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>